--- a/List_of_added_vulns.xlsx
+++ b/List_of_added_vulns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawrence\Desktop\School\GATech\Spring 2026\PUBP 6727 Cyber Sec Practicum\SourceCodeRepos\GitHub\SCAMR_Helper_SampleSourceCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3888FF49-713C-4F5D-8F1E-CE26167C65F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D65E3-6591-431F-91E4-AD6BA9E95976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>CWE</t>
   </si>
@@ -130,6 +130,90 @@
   </si>
   <si>
     <t>~\Modules\_bisectmodule.c</t>
+  </si>
+  <si>
+    <t>Vulnerability Description</t>
+  </si>
+  <si>
+    <t>SQL Injection</t>
+  </si>
+  <si>
+    <t>Access Array Out of Bounds</t>
+  </si>
+  <si>
+    <t>Buffer Overflow</t>
+  </si>
+  <si>
+    <t>Dereference NULL Pointer</t>
+  </si>
+  <si>
+    <t>Hardcoded Credentials</t>
+  </si>
+  <si>
+    <t>Improper Format String</t>
+  </si>
+  <si>
+    <t>Insecure System Call</t>
+  </si>
+  <si>
+    <t>Integer Overflow</t>
+  </si>
+  <si>
+    <t>Memory Leak</t>
+  </si>
+  <si>
+    <t>Race Condition</t>
+  </si>
+  <si>
+    <t>Return Local Address</t>
+  </si>
+  <si>
+    <t>Use after Free</t>
+  </si>
+  <si>
+    <t>Using Gets</t>
+  </si>
+  <si>
+    <t>~\Objects\mimalloc\segment-map.c</t>
+  </si>
+  <si>
+    <t>~\Python\ast.c</t>
+  </si>
+  <si>
+    <t>~\Python\codegen.c</t>
+  </si>
+  <si>
+    <t>~\Python\flowgraph.c</t>
+  </si>
+  <si>
+    <t>~\Modules\_multiprocessing\semaphore.c</t>
+  </si>
+  <si>
+    <t>~\Modules\cjkcodecs\_codecs_iso2022.c</t>
+  </si>
+  <si>
+    <t>~\Modules\_pickle.c</t>
+  </si>
+  <si>
+    <t>~\Modules\_weakref.c</t>
+  </si>
+  <si>
+    <t>~\Python\emscripten_trampoline.c</t>
+  </si>
+  <si>
+    <t>~\Python\parking_lot.c</t>
+  </si>
+  <si>
+    <t>~\Python\thread.c</t>
+  </si>
+  <si>
+    <t>~\Programs\_testembed.c</t>
+  </si>
+  <si>
+    <t>~\Parser\pegen_errors.c</t>
+  </si>
+  <si>
+    <t>~\Objects\namespaceobject.c</t>
   </si>
 </sst>
 </file>
@@ -456,371 +540,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="61.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>119</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>119</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>119</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>125</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>125</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>125</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>125</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>134</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>134</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>170</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>190</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>193</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>195</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>197</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>369</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>369</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>369</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>369</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>401</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>415</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>416</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>416</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>416</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>416</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>457</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>476</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>665</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>128</v>
       </c>
     </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
